--- a/biology/Histoire de la zoologie et de la botanique/Charles_Edward_Turner/Charles_Edward_Turner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Edward_Turner/Charles_Edward_Turner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Edward Turner est un botaniste américain, né le 21 septembre 1945 à Washington, D.C. et mort le 15 avril 1997 des suites d’un cancer du côlon et du foie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il grandit à Indianapolis où ses promenades dans les bois de l’Indiana le font aimer la nature. Il obtient son Bachelor of Arts en biologie à Wabash College en 1967. Il envisage un temps de s’orienter vers la médecine avant de décider de continuer d’étudier la biologie. Il étudie à l’université de Washington de Seattle où il obtient un Master of Sciences en botanique en 1969.
 Il se rend alors à l’université de Berkeley de Californie où il étudie les systèmes nutritifs des végétaux auprès d’Herbert George Baker (1920-2001) et obtient son doctorat en 1981, sa thèse porte sur le système nutritif de Sagittaria, adventice des plantations de riz de la vallée centrale de Californie.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notice nécrologique parue dans Plant Science Bulletin, 43 (4) (en anglais)</t>
         </is>
